--- a/Data/Data_Tgdd_Demo.xlsx
+++ b/Data/Data_Tgdd_Demo.xlsx
@@ -1,85 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/DA2019/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7FBC15-B535-D24A-9A4F-FE7D2ACB58FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Review</t>
-  </si>
-  <si>
-    <t>E mới mua con s10 được gần 2 tuần mà sao xài nhanh nóng quá ạ Hay do cài đặt e chỉnh sai gì ạ</t>
-  </si>
-  <si>
-    <t>Máy hết pin nhanh quá, có cách nào khắc phục không, mọi thứ đều ổn chỉ có pin là tệ, 4sao</t>
-  </si>
-  <si>
-    <t>Dùng chưa đầy một tháng nhưng quá nhiều thất vọng thỉnh thoảng đọc báo treo không vuốt được, cảm ứng có cuộc gọi ko vuốt nghe được kém hơn cả huawei nếu ai có ý định rước em này nên suy nghĩ pin xuống nhanh nữa thất vọng</t>
-  </si>
-  <si>
-    <t>Màn hình cứ tự bật sáng khi bỏ túi,y như máy đểu ngày xưa, pin yếu,vân tay lì.. Quá thất vọng</t>
-  </si>
-  <si>
-    <t>Máy đẹp, mượt, tất cả đều hài lòng nhưng điểm yếu pin tụt quá nhanh dù tắt hết ứng dụng ngầm nên cho 4 sao</t>
-  </si>
-  <si>
-    <t>Máy đẹp, dùng mượt, pin hơi yếu tí. Dán màn nên vân tay hơi chậm. Nói chung đến thời điểm hiện tại khá hài lòng</t>
-  </si>
-  <si>
-    <t>Máy đẹp, nhanh , ngon, chỉ tiếc là Pin tụt hơi nhanh. Còn lại mọi cái đều tuyệt vời.</t>
-  </si>
-  <si>
-    <t>Đã mua và sử dụng từ đời s8.rất đẹp và ok.màu xanh khá đẹp.s10 nhỏ vừa tay hơn s10+.mình đã chọn s10.</t>
-  </si>
-  <si>
-    <t>Dùng màn hình đẹp, pin hơi yếu so với dòng A, wifile bắt khoảng cách xa yếu hơn dòng lumia</t>
-  </si>
-  <si>
-    <t>Nhận máy s10 từ hôm qua tại cửa hàng ở số 3 Quang Trung, Nha Trang. Điện thoại dùng quá ngon, màu xanh của máy đẹp, màn hình sáng, pin khá ổn, chụp hình ấn tượng. Chỉ có cái cảm ứng siêu âm khi ko có dán màn hình thì quá ngon, hy vọng sớm ra dán màn hình tích hợp. Nhân viên TGDĐ nhiệt tình, cảm ơn đã giao máy đúng hẹn.</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,44 +46,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -419,155 +353,357 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Máy xài rất tốt. Ngoại hình đẹp, cầm nắm nhỏ gọn, màn hình to xem phim rất đã. Nốt ruồi sẽ quen dần thôi và với mình thấy cũng bình thường. Chụp hình thì đẹp khỏi bàn. Pin mình dùng đủ 1 ngày, so với s8 hay s9 thì ok hơn nhiều. Sạc nhanh sẽ nhanh chai pin hơn bình thường nhưng con số đó rất thấp nên vấn rất hài lòng. Mình thường để màn hình độ phân giải Full HD và độ sáng 50%, lâu lâu vào Chăm sóc thiết bị tối ưu pin nên nói chung xài ổn lắm. À, vân tay không bằng vân tay cũ ngày xưa nhưng vẫn nhanh lắm</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Máy nhanh hết pin có chách nào khắc phục không, sử dụng rất ít, máy mliws mà pin hết rất nhanh, tệ hơn apple rất nhiều</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>E mới mua con s10 được gần 2 tuần mà sao xài nhanh nóng quá ạ Hay do cài đặt e chỉnh sai gì ạ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Máy hết pin nhanh quá, có cách nào khắc phục không, mọi thứ đều ổn chỉ có pin là tệ, 4sao</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Xài tốt đc ok 1 thời gian nhưng sao trong máy nó bị gì cứ kêu cạch cạch chả hiểu</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dùng chưa đầy một tháng nhưng quá nhiều thất vọng thỉnh thoảng đọc báo treo không vuốt được, cảm ứng có cuộc gọi ko vuốt nghe được kém hơn cả huawei nếu ai có ý định rước em này nên suy nghĩ pin xuống nhanh nữa thất vọng</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Màn hình cứ tự bật sáng khi bỏ túi,y như máy đểu ngày xưa, pin yếu,vân tay lì.. Quá thất vọng</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Máy đẹp, mượt, tất cả đều hài lòng nhưng điểm yếu pin tụt quá nhanh dù tắt hết ứng dụng ngầm nên cho 4 sao</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Máy đẹp, dùng mượt, pin hơi yếu tí. Dán màn nên vân tay hơi chậm. Nói chung đến thời điểm hiện tại khá hài lòng</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Máy đẹp, nhanh , ngon, chỉ tiếc là Pin tụt hơi nhanh. Còn lại mọi cái đều tuyệt vời.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Đã mua và sử dụng từ đời s8.rất đẹp và ok.màu xanh khá đẹp.s10 nhỏ vừa tay hơn s10+.mình đã chọn s10.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dùng màn hình đẹp, pin hơi yếu so với dòng A, wifile bắt khoảng cách xa yếu hơn dòng lumia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nhận máy s10 từ hôm qua tại cửa hàng ở số 3 Quang Trung, Nha Trang. Điện thoại dùng quá ngon, màu xanh của máy đẹp, màn hình sáng, pin khá ổn, chụp hình ấn tượng. Chỉ có cái cảm ứng siêu âm khi ko có dán màn hình thì quá ngon, hy vọng sớm ra dán màn hình tích hợp. Nhân viên TGDĐ nhiệt tình, cảm ơn đã giao máy đúng hẹn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cảm giác máy còn hơi nóng. Update mới vân tay rất nhạy. Camera chụp rất tuyệt vời, chụp được nhiều góc độ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vừa lấy máy hôm qua. Máy mượt. - Chơi PUBG và Liên Quân bao đã. - Chụp ảnh điều kiện tối hay sáng gì cũng đẹp, đặc biệt chống rung quá xuất sắc. - PIN trung bình khá, không khá hơn S9 bao nhiêu. Nhưng tốc độ lại sạc nhanh hơn đáng kể. - SAMSUNG dán sẵn màn hình và tặng ốp lưng luôn nên cảm thấy rất được. - Vân tay vẫn chưa thật sự nhạy so với đời trước, nhưng so với FaceID của Apple thì tương đương thời gian mở khóa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sau khi sử dụng có 2 thứ vẫn không ổn 1. không hiện thị phần trăm pin 2. wifi quá yếu đang cập nhật phiên bản mới lên không biết thế nào</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>nghe nhiều người phàn nàn và không thích , hầu như biết con ss này mau hết pin định mua mà đọc thấy lỗi nhiều quá không dám mua luôn , nghe nói chơi nhiều nóng máy , camera trước bị hỏng ??? mong ad sớm khắc phục lỗi và giảm tiền xuống ak ... ( ý kiến riêng , nhận gạch xây nhà )</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mới mua đc 1 tuần máy đẹp mượt màu xannh tuyệt vời pin đc 1 ngày mình dùng ko nhiều</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nói thật nhé, Bin tuột còn hơn cave tuột quần nữa. Sai lầm lớn nhất của em là đổi note 9 lấy s10.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ngon trong tầm giá mà hơi hao pin, mong rằng tương lai có các bản vá update việc hao pin này</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mình dùng chưa được tháng mà nhiều khi đọc báo hay chơi game thi thoảng bị treo máy.pin thì hơi yếu</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mới nhận được bản cập nhật. Vân tay nhạy hơn nhưng pin vẫn còn hao. Hy vọng bản cập nhật tới sẽ khắc phục</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pin tụt rất nhanh, thua xa iphone 8, cụm camera nhìn thô và xấu cả cái mặt lưng, quá thất vọng với một sản phẩm cao cấp của samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Pin quá kém. Mỗi cái máy là đẹp . Máy nóng Thất vọng với s10 /s10 . Quay lại với con ai phôn ét ích thôi Và lại.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Máy hết pin nhanh quá, có cách nào khắc phục không, mọi thứ đều ổn chỉ có pin là tệ, 4sao</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Cap nhat phien ban moi,sac pin may bi nong may, tuong cap nhat phien ban moi se tot hon</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sao k sản xuất màn hình nhỏ gọn, vi xử lí tốt camera tốt nét, màn hình full hd là đc r đỡ hao pin, sạc nhanh, bảo mật vân tay hoàn hảo.... chỉ cần vài cái cốt lõi trên cùng giá hợp lí sẽ nhiều người mua hơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>máy mua gần 21 tr mà thấy có lỗi như vân tay ko nhạy , pin tụt nhanh và 1 số lỗi lặt vặt nữa toàn là những lỗi ko đáng có ở tầm giá này. Dạo này thấy samsung làm đt hơi kém chất lượng (mình chỉ góp ý thoi chớ hk có í chê samsung mong samsung sẽ ko mắc những lỗi như vậy nữa trong những sản phẩm tới ai fan sammsung thì cx đừng giận "mìn chỉ góp ý thoi")</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dùng hàng cao cấp của samsung sau vài tháng có cảm giác như dùng hàng rẻ tiền vậy. Đang mất dần niềm tin với sam</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Quảng cáo rầm rộ. Trải nghiệm thực sự thua xa máy tầm trung của xiaomi. Pin thì tụt nhanh. Đèn thông báo thì không có. Vân tay thì tệ ơi là tệ, bấm cả chục cái mới mở được màn hình. Thật sự thất vọng</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Tất cả đều ok, trừ khoản pin kém qá, 1 ngày toàn sạc 2l, mặc dù để độ phân giải là FHD mong đc cập nhật cải thiện pin</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sp quá tuyệt. Mà xin vui long bên dịch vụ của cửa hàng hãy để thêm thông tin về dịch vụ trả góp qa thẻ tín dụg, để k.h có thể dễ dàng tham khảo các gói dịvh vụ tiện ích bên cửa hàng. (Đây là ý kiến riêng của mình)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>màn hình cảm ứng vân tay,khi có nưỡc thì tác dụng không nhạy.s10 sam sung độc quyền miếng dán mặt trước .thay miếng dán khác là mất mở khoá vân tay.mua của sam sung thì giá gấp 20 lần bểnngoài.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>